--- a/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
+++ b/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iPortfolio\assets\E4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C2DEF-0676-4179-8B08-3FFCED46BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3283A22D-E1BB-46E0-8C4F-EA19B4AE78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Centre de formation :ORT Daniel Mayer</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio : </t>
-  </si>
-  <si>
     <t>01/11/21 au 01/05/22</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">LAB WDS </t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : nathan55555.github.io</t>
   </si>
 </sst>
 </file>
@@ -728,9 +728,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -754,51 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,56 +1158,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="46"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1219,22 +1219,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1257,8 +1257,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
@@ -1314,16 +1314,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1362,24 +1362,24 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1419,12 +1419,12 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="45" t="s">
-        <v>28</v>
+      <c r="D10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1468,15 +1468,17 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="15"/>
+      <c r="E11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1517,7 +1519,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1525,7 +1527,9 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1564,16 +1568,20 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1613,14 +1621,16 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1660,11 +1670,15 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -1707,17 +1721,19 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="46" t="s">
-        <v>28</v>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1756,7 +1772,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -1764,7 +1780,9 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1803,15 +1821,19 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1849,16 +1871,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1897,7 +1919,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
@@ -1905,7 +1927,9 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1944,7 +1968,7 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
@@ -2215,16 +2239,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2263,7 +2287,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
@@ -2671,6 +2695,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2678,11 +2707,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2693,15 +2717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2F8F9288E27CF4399AB296C013D9D54" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b5b11f149281ed3d8bc7f9ae8f827b95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dc13c75-7b40-4bb0-99f5-7491ba72a134" xmlns:ns3="2b0f8d03-32c2-49cd-8e77-a752ab409d1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6df89cbc04f86a0c0fe9b9fced18d459" ns2:_="" ns3:_="">
     <xsd:import namespace="2dc13c75-7b40-4bb0-99f5-7491ba72a134"/>
@@ -2924,6 +2939,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2931,14 +2955,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EFF976-E52E-425F-9A3D-717F0B4D1E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4217B69-E62E-4D99-8991-1807CD547B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2957,6 +2973,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EFF976-E52E-425F-9A3D-717F0B4D1E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0411A7-8762-454D-9B25-FAA96D916885}">
   <ds:schemaRefs>

--- a/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
+++ b/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Nathan55555.github.io\assets\E4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3283A22D-E1BB-46E0-8C4F-EA19B4AE78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67E31D-6716-44BB-B436-73BCBBC5A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -142,18 +142,12 @@
     <t>MIS EN PLACE SERVER WEB</t>
   </si>
   <si>
-    <t>MIS EN PLACE KLUSTER DE SERVER HYPERV</t>
-  </si>
-  <si>
     <t>PROJET LAFLEUR</t>
   </si>
   <si>
     <t>CERTFICATION RGPD</t>
   </si>
   <si>
-    <t xml:space="preserve">Projet Systeme </t>
-  </si>
-  <si>
     <t>Projet MOSDOT</t>
   </si>
   <si>
@@ -179,6 +173,27 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : nathan55555.github.io</t>
+  </si>
+  <si>
+    <t>Projet E5 System</t>
+  </si>
+  <si>
+    <t>Configuration Switching : vlan, ssh, stp, trunking..</t>
+  </si>
+  <si>
+    <t>Mis en place Routage Dynamique : Ripv2 NG , OSPF V2 V3</t>
+  </si>
+  <si>
+    <t>Gestion des plans d'adressage IP, Vlsm, Ipv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalation Service Reseaux (LINUX WINDOWS) DHCP HAV4/6 DNS, </t>
+  </si>
+  <si>
+    <t>LABS GSB ( plateforme d'examen)</t>
+  </si>
+  <si>
+    <t>MIS EN PLACE CLUSTER DE SERVER HYPERV</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1157,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1235,7 @@
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1362,12 +1377,14 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1419,7 +1436,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -1428,7 +1445,9 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1468,11 +1487,13 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
@@ -1519,14 +1540,16 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
@@ -1568,11 +1591,13 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="24" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1646,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1670,7 +1695,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="24" t="s">
@@ -1721,7 +1746,7 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="24" t="s">
@@ -1730,7 +1755,9 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="16" t="s">
         <v>27</v>
       </c>
@@ -1772,13 +1799,17 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="16" t="s">
         <v>27</v>
@@ -1821,7 +1852,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -1870,17 +1901,21 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1919,17 +1954,17 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="H20" s="16"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1968,10 +2003,12 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -2014,9 +2051,13 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -2058,15 +2099,17 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2104,14 +2147,22 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2149,9 +2200,13 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2194,12 +2249,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="I26"/>
@@ -2238,17 +2299,19 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2286,9 +2349,7 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2422,15 +2483,17 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2468,7 +2531,9 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2557,15 +2622,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2602,15 +2667,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2647,10 +2712,186 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+    </row>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+    </row>
+    <row r="38" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+    </row>
+    <row r="39" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+    </row>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2693,6 +2934,10 @@
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G1:H1"/>
@@ -2703,8 +2948,8 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
   </mergeCells>

--- a/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
+++ b/assets/E4/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Nathan55555.github.io\assets\E4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67E31D-6716-44BB-B436-73BCBBC5A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B233B-09A6-41CB-85FF-A049C1E33F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -749,15 +749,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,30 +813,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:AQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1173,56 +1173,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="45" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="33"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1234,22 +1234,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1272,8 +1272,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
@@ -1329,16 +1329,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1389,15 +1389,9 @@
         <v>27</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="22"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1439,7 +1433,9 @@
         <v>46</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="23" t="s">
         <v>27</v>
       </c>
@@ -2100,16 +2096,16 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2484,16 +2480,16 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2940,11 +2936,6 @@
     <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2952,6 +2943,11 @@
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2962,6 +2958,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2F8F9288E27CF4399AB296C013D9D54" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b5b11f149281ed3d8bc7f9ae8f827b95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dc13c75-7b40-4bb0-99f5-7491ba72a134" xmlns:ns3="2b0f8d03-32c2-49cd-8e77-a752ab409d1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6df89cbc04f86a0c0fe9b9fced18d459" ns2:_="" ns3:_="">
     <xsd:import namespace="2dc13c75-7b40-4bb0-99f5-7491ba72a134"/>
@@ -3184,15 +3189,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3200,6 +3196,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EFF976-E52E-425F-9A3D-717F0B4D1E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4217B69-E62E-4D99-8991-1807CD547B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3218,14 +3222,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EFF976-E52E-425F-9A3D-717F0B4D1E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0411A7-8762-454D-9B25-FAA96D916885}">
   <ds:schemaRefs>
